--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/R204_I3_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/R204_I3_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="856" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,23 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -133,10 +143,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -159,26 +171,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true">
-      <c r="A1" t="s" s="2">
+    <row r="1" s="4" customFormat="true">
+      <c r="A1" t="s" s="4">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" t="s" s="4">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" t="s" s="4">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" t="s" s="4">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" t="s" s="4">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" t="s" s="4">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="G1" t="s" s="4">
         <v>7</v>
       </c>
     </row>
@@ -206,28 +218,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="2">
+      <c r="A3" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="B3" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="2">
+      <c r="C3" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D3" t="s" s="2">
+      <c r="D3" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="2">
+      <c r="E3" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="2">
+      <c r="F3" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="2">
+      <c r="G3" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="2">
+      <c r="H3" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -252,28 +264,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="2">
+      <c r="B5" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="2">
+      <c r="C5" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="2">
+      <c r="D5" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="2">
+      <c r="E5" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="2">
+      <c r="F5" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="2">
+      <c r="G5" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="2">
+      <c r="H5" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="2">
+      <c r="I5" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -361,10 +373,10 @@
       <c r="I8">
         <f>((C8-C7)^2+(D8- D7)^2)^.5</f>
       </c>
-      <c r="J8" s="2" t="s">
+      <c r="J8" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K8" s="2" t="s">
+      <c r="K8" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L8" t="n">
@@ -408,28 +420,28 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="s" s="2">
+      <c r="A10" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B10" t="s" s="2">
+      <c r="B10" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C10" t="s" s="2">
+      <c r="C10" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D10" t="s" s="2">
+      <c r="D10" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E10" t="s" s="2">
+      <c r="E10" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F10" t="s" s="2">
+      <c r="F10" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G10" t="s" s="2">
+      <c r="G10" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H10" t="s" s="2">
+      <c r="H10" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -454,28 +466,28 @@
       </c>
     </row>
     <row r="12">
-      <c r="B12" t="s" s="2">
+      <c r="B12" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C12" t="s" s="2">
+      <c r="C12" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D12" t="s" s="2">
+      <c r="D12" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E12" t="s" s="2">
+      <c r="E12" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F12" t="s" s="2">
+      <c r="F12" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G12" t="s" s="2">
+      <c r="G12" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H12" t="s" s="2">
+      <c r="H12" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I12" t="s" s="2">
+      <c r="I12" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1172,10 +1184,10 @@
       <c r="I36">
         <f>((C36-C35)^2+(D36- D35)^2)^.5</f>
       </c>
-      <c r="J36" s="2" t="s">
+      <c r="J36" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K36" s="2" t="s">
+      <c r="K36" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L36" t="n">
@@ -1219,28 +1231,28 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="s" s="2">
+      <c r="A38" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B38" t="s" s="2">
+      <c r="B38" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C38" t="s" s="2">
+      <c r="C38" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D38" t="s" s="2">
+      <c r="D38" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E38" t="s" s="2">
+      <c r="E38" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F38" t="s" s="2">
+      <c r="F38" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G38" t="s" s="2">
+      <c r="G38" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H38" t="s" s="2">
+      <c r="H38" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1265,28 +1277,28 @@
       </c>
     </row>
     <row r="40">
-      <c r="B40" t="s" s="2">
+      <c r="B40" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C40" t="s" s="2">
+      <c r="C40" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D40" t="s" s="2">
+      <c r="D40" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E40" t="s" s="2">
+      <c r="E40" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F40" t="s" s="2">
+      <c r="F40" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G40" t="s" s="2">
+      <c r="G40" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H40" t="s" s="2">
+      <c r="H40" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I40" t="s" s="2">
+      <c r="I40" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1577,10 +1589,10 @@
       <c r="I50">
         <f>((C50-C49)^2+(D50- D49)^2)^.5</f>
       </c>
-      <c r="J50" s="2" t="s">
+      <c r="J50" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K50" s="2" t="s">
+      <c r="K50" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L50" t="n">
@@ -1624,28 +1636,28 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" t="s" s="2">
+      <c r="A52" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B52" t="s" s="2">
+      <c r="B52" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C52" t="s" s="2">
+      <c r="C52" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D52" t="s" s="2">
+      <c r="D52" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E52" t="s" s="2">
+      <c r="E52" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F52" t="s" s="2">
+      <c r="F52" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G52" t="s" s="2">
+      <c r="G52" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H52" t="s" s="2">
+      <c r="H52" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1670,28 +1682,28 @@
       </c>
     </row>
     <row r="54">
-      <c r="B54" t="s" s="2">
+      <c r="B54" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C54" t="s" s="2">
+      <c r="C54" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D54" t="s" s="2">
+      <c r="D54" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E54" t="s" s="2">
+      <c r="E54" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F54" t="s" s="2">
+      <c r="F54" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G54" t="s" s="2">
+      <c r="G54" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H54" t="s" s="2">
+      <c r="H54" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I54" t="s" s="2">
+      <c r="I54" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1779,10 +1791,10 @@
       <c r="I57">
         <f>((C57-C56)^2+(D57- D56)^2)^.5</f>
       </c>
-      <c r="J57" s="2" t="s">
+      <c r="J57" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K57" s="2" t="s">
+      <c r="K57" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L57" t="n">
@@ -1826,28 +1838,28 @@
       </c>
     </row>
     <row r="59">
-      <c r="A59" t="s" s="2">
+      <c r="A59" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B59" t="s" s="2">
+      <c r="B59" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C59" t="s" s="2">
+      <c r="C59" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D59" t="s" s="2">
+      <c r="D59" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E59" t="s" s="2">
+      <c r="E59" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F59" t="s" s="2">
+      <c r="F59" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G59" t="s" s="2">
+      <c r="G59" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H59" t="s" s="2">
+      <c r="H59" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1872,28 +1884,28 @@
       </c>
     </row>
     <row r="61">
-      <c r="B61" t="s" s="2">
+      <c r="B61" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C61" t="s" s="2">
+      <c r="C61" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D61" t="s" s="2">
+      <c r="D61" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E61" t="s" s="2">
+      <c r="E61" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F61" t="s" s="2">
+      <c r="F61" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G61" t="s" s="2">
+      <c r="G61" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H61" t="s" s="2">
+      <c r="H61" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I61" t="s" s="2">
+      <c r="I61" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1981,10 +1993,10 @@
       <c r="I64">
         <f>((C64-C63)^2+(D64- D63)^2)^.5</f>
       </c>
-      <c r="J64" s="2" t="s">
+      <c r="J64" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K64" s="2" t="s">
+      <c r="K64" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L64" t="n">
@@ -2028,28 +2040,28 @@
       </c>
     </row>
     <row r="66">
-      <c r="A66" t="s" s="2">
+      <c r="A66" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B66" t="s" s="2">
+      <c r="B66" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C66" t="s" s="2">
+      <c r="C66" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D66" t="s" s="2">
+      <c r="D66" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E66" t="s" s="2">
+      <c r="E66" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F66" t="s" s="2">
+      <c r="F66" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G66" t="s" s="2">
+      <c r="G66" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H66" t="s" s="2">
+      <c r="H66" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2074,28 +2086,28 @@
       </c>
     </row>
     <row r="68">
-      <c r="B68" t="s" s="2">
+      <c r="B68" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C68" t="s" s="2">
+      <c r="C68" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D68" t="s" s="2">
+      <c r="D68" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E68" t="s" s="2">
+      <c r="E68" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F68" t="s" s="2">
+      <c r="F68" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G68" t="s" s="2">
+      <c r="G68" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H68" t="s" s="2">
+      <c r="H68" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I68" t="s" s="2">
+      <c r="I68" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2386,10 +2398,10 @@
       <c r="I78">
         <f>((C78-C77)^2+(D78- D77)^2)^.5</f>
       </c>
-      <c r="J78" s="2" t="s">
+      <c r="J78" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K78" s="2" t="s">
+      <c r="K78" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L78" t="n">
@@ -2433,28 +2445,28 @@
       </c>
     </row>
     <row r="80">
-      <c r="A80" t="s" s="2">
+      <c r="A80" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B80" t="s" s="2">
+      <c r="B80" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C80" t="s" s="2">
+      <c r="C80" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D80" t="s" s="2">
+      <c r="D80" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E80" t="s" s="2">
+      <c r="E80" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F80" t="s" s="2">
+      <c r="F80" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G80" t="s" s="2">
+      <c r="G80" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H80" t="s" s="2">
+      <c r="H80" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2479,28 +2491,28 @@
       </c>
     </row>
     <row r="82">
-      <c r="B82" t="s" s="2">
+      <c r="B82" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C82" t="s" s="2">
+      <c r="C82" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D82" t="s" s="2">
+      <c r="D82" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E82" t="s" s="2">
+      <c r="E82" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F82" t="s" s="2">
+      <c r="F82" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G82" t="s" s="2">
+      <c r="G82" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H82" t="s" s="2">
+      <c r="H82" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I82" t="s" s="2">
+      <c r="I82" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2907,10 +2919,10 @@
       <c r="I96">
         <f>((C96-C95)^2+(D96- D95)^2)^.5</f>
       </c>
-      <c r="J96" s="2" t="s">
+      <c r="J96" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K96" s="2" t="s">
+      <c r="K96" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L96" t="n">
@@ -2954,28 +2966,28 @@
       </c>
     </row>
     <row r="98">
-      <c r="A98" t="s" s="2">
+      <c r="A98" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B98" t="s" s="2">
+      <c r="B98" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C98" t="s" s="2">
+      <c r="C98" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D98" t="s" s="2">
+      <c r="D98" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E98" t="s" s="2">
+      <c r="E98" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F98" t="s" s="2">
+      <c r="F98" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G98" t="s" s="2">
+      <c r="G98" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H98" t="s" s="2">
+      <c r="H98" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3000,28 +3012,28 @@
       </c>
     </row>
     <row r="100">
-      <c r="B100" t="s" s="2">
+      <c r="B100" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C100" t="s" s="2">
+      <c r="C100" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D100" t="s" s="2">
+      <c r="D100" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E100" t="s" s="2">
+      <c r="E100" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F100" t="s" s="2">
+      <c r="F100" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G100" t="s" s="2">
+      <c r="G100" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H100" t="s" s="2">
+      <c r="H100" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I100" t="s" s="2">
+      <c r="I100" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3167,10 +3179,10 @@
       <c r="I105">
         <f>((C105-C104)^2+(D105- D104)^2)^.5</f>
       </c>
-      <c r="J105" s="2" t="s">
+      <c r="J105" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K105" s="2" t="s">
+      <c r="K105" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L105" t="n">
@@ -3214,28 +3226,28 @@
       </c>
     </row>
     <row r="107">
-      <c r="A107" t="s" s="2">
+      <c r="A107" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B107" t="s" s="2">
+      <c r="B107" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C107" t="s" s="2">
+      <c r="C107" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D107" t="s" s="2">
+      <c r="D107" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E107" t="s" s="2">
+      <c r="E107" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F107" t="s" s="2">
+      <c r="F107" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G107" t="s" s="2">
+      <c r="G107" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H107" t="s" s="2">
+      <c r="H107" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3260,28 +3272,28 @@
       </c>
     </row>
     <row r="109">
-      <c r="B109" t="s" s="2">
+      <c r="B109" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C109" t="s" s="2">
+      <c r="C109" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D109" t="s" s="2">
+      <c r="D109" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E109" t="s" s="2">
+      <c r="E109" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F109" t="s" s="2">
+      <c r="F109" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G109" t="s" s="2">
+      <c r="G109" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H109" t="s" s="2">
+      <c r="H109" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I109" t="s" s="2">
+      <c r="I109" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3688,10 +3700,10 @@
       <c r="I123">
         <f>((C123-C122)^2+(D123- D122)^2)^.5</f>
       </c>
-      <c r="J123" s="2" t="s">
+      <c r="J123" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K123" s="2" t="s">
+      <c r="K123" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L123" t="n">
@@ -3735,28 +3747,28 @@
       </c>
     </row>
     <row r="125">
-      <c r="A125" t="s" s="2">
+      <c r="A125" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B125" t="s" s="2">
+      <c r="B125" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C125" t="s" s="2">
+      <c r="C125" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D125" t="s" s="2">
+      <c r="D125" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E125" t="s" s="2">
+      <c r="E125" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F125" t="s" s="2">
+      <c r="F125" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G125" t="s" s="2">
+      <c r="G125" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H125" t="s" s="2">
+      <c r="H125" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3781,28 +3793,28 @@
       </c>
     </row>
     <row r="127">
-      <c r="B127" t="s" s="2">
+      <c r="B127" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C127" t="s" s="2">
+      <c r="C127" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D127" t="s" s="2">
+      <c r="D127" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E127" t="s" s="2">
+      <c r="E127" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F127" t="s" s="2">
+      <c r="F127" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G127" t="s" s="2">
+      <c r="G127" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H127" t="s" s="2">
+      <c r="H127" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I127" t="s" s="2">
+      <c r="I127" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4180,10 +4192,10 @@
       <c r="I140">
         <f>((C140-C139)^2+(D140- D139)^2)^.5</f>
       </c>
-      <c r="J140" s="2" t="s">
+      <c r="J140" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K140" s="2" t="s">
+      <c r="K140" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L140" t="n">
@@ -4227,28 +4239,28 @@
       </c>
     </row>
     <row r="142">
-      <c r="A142" t="s" s="2">
+      <c r="A142" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B142" t="s" s="2">
+      <c r="B142" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C142" t="s" s="2">
+      <c r="C142" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D142" t="s" s="2">
+      <c r="D142" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E142" t="s" s="2">
+      <c r="E142" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F142" t="s" s="2">
+      <c r="F142" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G142" t="s" s="2">
+      <c r="G142" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H142" t="s" s="2">
+      <c r="H142" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4273,28 +4285,28 @@
       </c>
     </row>
     <row r="144">
-      <c r="B144" t="s" s="2">
+      <c r="B144" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C144" t="s" s="2">
+      <c r="C144" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D144" t="s" s="2">
+      <c r="D144" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E144" t="s" s="2">
+      <c r="E144" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F144" t="s" s="2">
+      <c r="F144" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G144" t="s" s="2">
+      <c r="G144" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H144" t="s" s="2">
+      <c r="H144" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I144" t="s" s="2">
+      <c r="I144" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4643,10 +4655,10 @@
       <c r="I156">
         <f>((C156-C155)^2+(D156- D155)^2)^.5</f>
       </c>
-      <c r="J156" s="2" t="s">
+      <c r="J156" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K156" s="2" t="s">
+      <c r="K156" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L156" t="n">
